--- a/Gauss Siedal.xlsx
+++ b/Gauss Siedal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\Excel\Numerical-Computing-Excel-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBD42C8-52EE-40B4-868A-7661DABDBFEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C203DF81-ACCE-4D88-8EBA-6D76884EA9AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{DA5D466D-3D64-4F82-B167-020EAA80FD9F}"/>
   </bookViews>
@@ -924,7 +924,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,13 +963,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="8">
         <v>20</v>
@@ -983,13 +983,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E3" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="8">
         <v>25</v>
@@ -1000,13 +1000,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="8">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="8">
         <v>30</v>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="B6" s="2" t="str">
         <f>_xlfn.CONCAT("(",F2,IF(D2&gt;0,"-","+"),IF(D2&gt;0,D2,-D2),$D$1,IF(E2&gt;0,"-","+"),IF(E2&gt;0,E2,-E2),$E$1,")","/",C2)</f>
-        <v>(20-1x2-2x3)/5</v>
+        <v>(20+0x2+0x3)/1</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B7" s="2" t="str">
         <f>_xlfn.CONCAT("(",F3,IF(C3&gt;0,"-","+"),IF(C3&gt;0,C3,-C3),$C$1,IF(E3&gt;0,"-","+"),IF(E3&gt;0,E3,-E3),$E$1,")","/",D3)</f>
-        <v>(25+1x1-2x3)/6</v>
+        <v>(25+0x1+0x3)/1</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>9</v>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="B8" s="2" t="str">
         <f>_xlfn.CONCAT("(",F4,IF(C4&gt;0,"-","+"),IF(C4&gt;0,C4,-C4),$C$1,IF(D4&gt;0,"-","+"),IF(D4&gt;0,D4,-D4),$D$1,")","/",E4)</f>
-        <v>(30-2x1+2x2)/5</v>
+        <v>(30+0x1+0x2)/1</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>9</v>
@@ -1116,15 +1116,15 @@
       </c>
       <c r="C14" s="6" t="str">
         <f>FIXED(($F$2-($D$2 * D13)-($E$2 * E13))/$C$2,$I$2)</f>
-        <v>4.0000</v>
+        <v>20.0000</v>
       </c>
       <c r="D14" s="6" t="str">
         <f>FIXED(($F$3-($C$3 * C14)-($E$3 * E13))/$D$3,$I$2)</f>
-        <v>4.8333</v>
+        <v>25.0000</v>
       </c>
       <c r="E14" s="6" t="str">
         <f>FIXED(($F$4-($C$4 * C14)-($D$4 * D14))/$E$4,$I$2)</f>
-        <v>6.3333</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
@@ -1134,15 +1134,15 @@
       </c>
       <c r="C15" s="6" t="str">
         <f>FIXED(($F$2-($D$2 * D14)-($E$2 * E14))/$C$2,$I$2)</f>
-        <v>0.5000</v>
+        <v>20.0000</v>
       </c>
       <c r="D15" s="6" t="str">
         <f>FIXED(($F$3-($C$3 * C15)-($E$3 * E14))/$D$3,$I$2)</f>
-        <v>2.1389</v>
+        <v>25.0000</v>
       </c>
       <c r="E15" s="6" t="str">
         <f>FIXED(($F$4-($C$4 * C15)-($D$4 * D15))/$E$4,$I$2)</f>
-        <v>6.6556</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.35">
@@ -1152,15 +1152,15 @@
       </c>
       <c r="C16" s="6" t="str">
         <f>FIXED(($F$2-($D$2 * D15)-($E$2 * E15))/$C$2,$I$2)</f>
-        <v>0.9100</v>
+        <v>20.0000</v>
       </c>
       <c r="D16" s="6" t="str">
         <f>FIXED(($F$3-($C$3 * C16)-($E$3 * E15))/$D$3,$I$2)</f>
-        <v>2.0998</v>
+        <v>25.0000</v>
       </c>
       <c r="E16" s="6" t="str">
         <f>FIXED(($F$4-($C$4 * C16)-($D$4 * D16))/$E$4,$I$2)</f>
-        <v>6.4759</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1170,15 +1170,15 @@
       </c>
       <c r="C17" s="6" t="str">
         <f t="shared" ref="C17:C44" si="2">FIXED(($F$2-($D$2 * D16)-($E$2 * E16))/$C$2,$I$2)</f>
-        <v>0.9897</v>
+        <v>20.0000</v>
       </c>
       <c r="D17" s="6" t="str">
         <f t="shared" ref="D17:D44" si="3">FIXED(($F$3-($C$3 * C17)-($E$3 * E16))/$D$3,$I$2)</f>
-        <v>2.1730</v>
+        <v>25.0000</v>
       </c>
       <c r="E17" s="6" t="str">
         <f t="shared" ref="E17:E44" si="4">FIXED(($F$4-($C$4 * C17)-($D$4 * D17))/$E$4,$I$2)</f>
-        <v>6.4733</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1188,15 +1188,15 @@
       </c>
       <c r="C18" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9761</v>
+        <v>20.0000</v>
       </c>
       <c r="D18" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1716</v>
+        <v>25.0000</v>
       </c>
       <c r="E18" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4782</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1206,15 +1206,15 @@
       </c>
       <c r="C19" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9744</v>
+        <v>20.0000</v>
       </c>
       <c r="D19" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1697</v>
+        <v>25.0000</v>
       </c>
       <c r="E19" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4781</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1224,15 +1224,15 @@
       </c>
       <c r="C20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D20" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1242,15 +1242,15 @@
       </c>
       <c r="C21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D21" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E21" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1260,15 +1260,15 @@
       </c>
       <c r="C22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D22" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E22" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1278,15 +1278,15 @@
       </c>
       <c r="C23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D23" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E23" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1296,15 +1296,15 @@
       </c>
       <c r="C24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D24" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E24" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1314,15 +1314,15 @@
       </c>
       <c r="C25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D25" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E25" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1332,15 +1332,15 @@
       </c>
       <c r="C26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D26" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E26" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1350,15 +1350,15 @@
       </c>
       <c r="C27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D27" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1368,15 +1368,15 @@
       </c>
       <c r="C28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D28" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1386,15 +1386,15 @@
       </c>
       <c r="C29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D29" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1404,15 +1404,15 @@
       </c>
       <c r="C30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D30" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E30" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1422,15 +1422,15 @@
       </c>
       <c r="C31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D31" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E31" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1440,15 +1440,15 @@
       </c>
       <c r="C32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D32" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E32" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1458,15 +1458,15 @@
       </c>
       <c r="C33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D33" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1476,15 +1476,15 @@
       </c>
       <c r="C34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D34" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E34" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1494,15 +1494,15 @@
       </c>
       <c r="C35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D35" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E35" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1512,15 +1512,15 @@
       </c>
       <c r="C36" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D36" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1530,15 +1530,15 @@
       </c>
       <c r="C37" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D37" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E37" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1548,15 +1548,15 @@
       </c>
       <c r="C38" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D38" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E38" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1566,15 +1566,15 @@
       </c>
       <c r="C39" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D39" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E39" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1584,15 +1584,15 @@
       </c>
       <c r="C40" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D40" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E40" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1602,15 +1602,15 @@
       </c>
       <c r="C41" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D41" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E41" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1620,15 +1620,15 @@
       </c>
       <c r="C42" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D42" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E42" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1638,15 +1638,15 @@
       </c>
       <c r="C43" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D43" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E43" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1656,15 +1656,15 @@
       </c>
       <c r="C44" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>0.9748</v>
+        <v>20.0000</v>
       </c>
       <c r="D44" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>2.1698</v>
+        <v>25.0000</v>
       </c>
       <c r="E44" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>6.4780</v>
+        <v>30.0000</v>
       </c>
     </row>
   </sheetData>
